--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf8-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf8-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fgf8</t>
+  </si>
+  <si>
+    <t>Fgfr1</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Fgf8</t>
-  </si>
-  <si>
-    <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06417100000000001</v>
+        <v>0.008099333333333333</v>
       </c>
       <c r="H2">
-        <v>0.128342</v>
+        <v>0.024298</v>
       </c>
       <c r="I2">
-        <v>0.3707399083708381</v>
+        <v>0.03427653281966027</v>
       </c>
       <c r="J2">
-        <v>0.2820108284845396</v>
+        <v>0.05054848581301346</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N2">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O2">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P2">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q2">
-        <v>0.646660985163</v>
+        <v>0.08424990518066668</v>
       </c>
       <c r="R2">
-        <v>2.586643940652</v>
+        <v>0.5054994310840001</v>
       </c>
       <c r="S2">
-        <v>0.03174266304405234</v>
+        <v>0.004025482293965822</v>
       </c>
       <c r="T2">
-        <v>0.01892164836709219</v>
+        <v>0.004479678546069615</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06417100000000001</v>
+        <v>0.008099333333333333</v>
       </c>
       <c r="H3">
-        <v>0.128342</v>
+        <v>0.024298</v>
       </c>
       <c r="I3">
-        <v>0.3707399083708381</v>
+        <v>0.03427653281966027</v>
       </c>
       <c r="J3">
-        <v>0.2820108284845396</v>
+        <v>0.05054848581301346</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>168.501376</v>
       </c>
       <c r="O3">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P3">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q3">
-        <v>3.604300599765334</v>
+        <v>0.4549162704497778</v>
       </c>
       <c r="R3">
-        <v>21.625803598592</v>
+        <v>4.094246434048</v>
       </c>
       <c r="S3">
-        <v>0.1769243886253445</v>
+        <v>0.02173601724542684</v>
       </c>
       <c r="T3">
-        <v>0.1581956623087487</v>
+        <v>0.03628274689369353</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -664,19 +664,19 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06417100000000001</v>
+        <v>0.008099333333333333</v>
       </c>
       <c r="H4">
-        <v>0.128342</v>
+        <v>0.024298</v>
       </c>
       <c r="I4">
-        <v>0.3707399083708381</v>
+        <v>0.03427653281966027</v>
       </c>
       <c r="J4">
-        <v>0.2820108284845396</v>
+        <v>0.05054848581301346</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N4">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O4">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P4">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q4">
-        <v>0.059082945581</v>
+        <v>0.002356536130444444</v>
       </c>
       <c r="R4">
-        <v>0.354497673486</v>
+        <v>0.021208825174</v>
       </c>
       <c r="S4">
-        <v>0.002900205944471863</v>
+        <v>0.0001125959067592125</v>
       </c>
       <c r="T4">
-        <v>0.002593198166641979</v>
+        <v>0.000187950199895519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06417100000000001</v>
+        <v>0.008099333333333333</v>
       </c>
       <c r="H5">
-        <v>0.128342</v>
+        <v>0.024298</v>
       </c>
       <c r="I5">
-        <v>0.3707399083708381</v>
+        <v>0.03427653281966027</v>
       </c>
       <c r="J5">
-        <v>0.2820108284845396</v>
+        <v>0.05054848581301346</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N5">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O5">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P5">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q5">
-        <v>2.7356130348065</v>
+        <v>0.1665416588393333</v>
       </c>
       <c r="R5">
-        <v>10.942452139226</v>
+        <v>0.9992499530359999</v>
       </c>
       <c r="S5">
-        <v>0.1342831016175995</v>
+        <v>0.007957403600963052</v>
       </c>
       <c r="T5">
-        <v>0.08004550931736681</v>
+        <v>0.008855239593796098</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.06417100000000001</v>
+        <v>0.008099333333333333</v>
       </c>
       <c r="H6">
-        <v>0.128342</v>
+        <v>0.024298</v>
       </c>
       <c r="I6">
-        <v>0.3707399083708381</v>
+        <v>0.03427653281966027</v>
       </c>
       <c r="J6">
-        <v>0.2820108284845396</v>
+        <v>0.05054848581301346</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N6">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O6">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P6">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q6">
-        <v>0.4145652802813333</v>
+        <v>0.004650213334888889</v>
       </c>
       <c r="R6">
-        <v>2.487391681688</v>
+        <v>0.041851920014</v>
       </c>
       <c r="S6">
-        <v>0.02034977569957536</v>
+        <v>0.0002221883977509166</v>
       </c>
       <c r="T6">
-        <v>0.01819560474189845</v>
+        <v>0.0003708869618240635</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,19 +850,19 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.06417100000000001</v>
+        <v>0.008099333333333333</v>
       </c>
       <c r="H7">
-        <v>0.128342</v>
+        <v>0.024298</v>
       </c>
       <c r="I7">
-        <v>0.3707399083708381</v>
+        <v>0.03427653281966027</v>
       </c>
       <c r="J7">
-        <v>0.2820108284845396</v>
+        <v>0.05054848581301346</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N7">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O7">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P7">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q7">
-        <v>0.09248418637466667</v>
+        <v>0.004663963303111111</v>
       </c>
       <c r="R7">
-        <v>0.554905118248</v>
+        <v>0.041975669728</v>
       </c>
       <c r="S7">
-        <v>0.004539773439794574</v>
+        <v>0.0002228453747944213</v>
       </c>
       <c r="T7">
-        <v>0.004059205582791486</v>
+        <v>0.0003719836177346335</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.008099333333333333</v>
+        <v>0.2281945</v>
       </c>
       <c r="H8">
-        <v>0.024298</v>
+        <v>0.456389</v>
       </c>
       <c r="I8">
-        <v>0.04679288304475347</v>
+        <v>0.9657234671803397</v>
       </c>
       <c r="J8">
-        <v>0.05339093290206901</v>
+        <v>0.9494515141869866</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N8">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O8">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P8">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q8">
-        <v>0.081618221198</v>
+        <v>2.3736972163655</v>
       </c>
       <c r="R8">
-        <v>0.489709327188</v>
+        <v>9.494788865462001</v>
       </c>
       <c r="S8">
-        <v>0.00400639555066091</v>
+        <v>0.1134158678899971</v>
       </c>
       <c r="T8">
-        <v>0.003582289601405665</v>
+        <v>0.08414174055322107</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.008099333333333333</v>
+        <v>0.2281945</v>
       </c>
       <c r="H9">
-        <v>0.024298</v>
+        <v>0.456389</v>
       </c>
       <c r="I9">
-        <v>0.04679288304475347</v>
+        <v>0.9657234671803397</v>
       </c>
       <c r="J9">
-        <v>0.05339093290206901</v>
+        <v>0.9494515141869866</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>168.501376</v>
       </c>
       <c r="O9">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P9">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q9">
-        <v>0.4549162704497778</v>
+        <v>12.81702908187733</v>
       </c>
       <c r="R9">
-        <v>4.094246434048</v>
+        <v>76.90217449126399</v>
       </c>
       <c r="S9">
-        <v>0.02233048570651655</v>
+        <v>0.6124009697067523</v>
       </c>
       <c r="T9">
-        <v>0.02994996340074156</v>
+        <v>0.6814983361620668</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1036,19 +1036,19 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.008099333333333333</v>
+        <v>0.2281945</v>
       </c>
       <c r="H10">
-        <v>0.024298</v>
+        <v>0.456389</v>
       </c>
       <c r="I10">
-        <v>0.04679288304475347</v>
+        <v>0.9657234671803397</v>
       </c>
       <c r="J10">
-        <v>0.05339093290206901</v>
+        <v>0.9494515141869866</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N10">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O10">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P10">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q10">
-        <v>0.007457145292666666</v>
+        <v>0.06639417861783332</v>
       </c>
       <c r="R10">
-        <v>0.067114307634</v>
+        <v>0.398365071707</v>
       </c>
       <c r="S10">
-        <v>0.000366049067017694</v>
+        <v>0.003172331053374573</v>
       </c>
       <c r="T10">
-        <v>0.0004909501881930062</v>
+        <v>0.003530266021076469</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.008099333333333333</v>
+        <v>0.2281945</v>
       </c>
       <c r="H11">
-        <v>0.024298</v>
+        <v>0.456389</v>
       </c>
       <c r="I11">
-        <v>0.04679288304475347</v>
+        <v>0.9657234671803397</v>
       </c>
       <c r="J11">
-        <v>0.05339093290206901</v>
+        <v>0.9494515141869866</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N11">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O11">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P11">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q11">
-        <v>0.3452749971156667</v>
+        <v>4.692224533049499</v>
       </c>
       <c r="R11">
-        <v>2.071649982694</v>
+        <v>18.768898132198</v>
       </c>
       <c r="S11">
-        <v>0.01694852193412618</v>
+        <v>0.2241957036817799</v>
       </c>
       <c r="T11">
-        <v>0.01515439829045346</v>
+        <v>0.1663278435662609</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.008099333333333333</v>
+        <v>0.2281945</v>
       </c>
       <c r="H12">
-        <v>0.024298</v>
+        <v>0.456389</v>
       </c>
       <c r="I12">
-        <v>0.04679288304475347</v>
+        <v>0.9657234671803397</v>
       </c>
       <c r="J12">
-        <v>0.05339093290206901</v>
+        <v>0.9494515141869866</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N12">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O12">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P12">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q12">
-        <v>0.05232429591911111</v>
+        <v>0.1310173397211667</v>
       </c>
       <c r="R12">
-        <v>0.470918663272</v>
+        <v>0.786104038327</v>
       </c>
       <c r="S12">
-        <v>0.002568443948971145</v>
+        <v>0.006260042431134852</v>
       </c>
       <c r="T12">
-        <v>0.003444833367242591</v>
+        <v>0.00696636470573391</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1222,19 +1222,19 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.008099333333333333</v>
+        <v>0.2281945</v>
       </c>
       <c r="H13">
-        <v>0.024298</v>
+        <v>0.456389</v>
       </c>
       <c r="I13">
-        <v>0.04679288304475347</v>
+        <v>0.9657234671803397</v>
       </c>
       <c r="J13">
-        <v>0.05339093290206901</v>
+        <v>0.9494515141869866</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,400 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N13">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O13">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P13">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q13">
-        <v>0.01167287799022222</v>
+        <v>0.1314047379173333</v>
       </c>
       <c r="R13">
-        <v>0.105055901912</v>
+        <v>0.788428427504</v>
       </c>
       <c r="S13">
-        <v>0.0005729868374609951</v>
+        <v>0.006278552417300878</v>
       </c>
       <c r="T13">
-        <v>0.0007684980540327212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.1008186666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.302456</v>
-      </c>
-      <c r="I14">
-        <v>0.5824672085844085</v>
-      </c>
-      <c r="J14">
-        <v>0.6645982386133915</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>10.077153</v>
-      </c>
-      <c r="N14">
-        <v>20.154306</v>
-      </c>
-      <c r="O14">
-        <v>0.08561976287781047</v>
-      </c>
-      <c r="P14">
-        <v>0.06709546746404282</v>
-      </c>
-      <c r="Q14">
-        <v>1.015965129256</v>
-      </c>
-      <c r="R14">
-        <v>6.095790775536</v>
-      </c>
-      <c r="S14">
-        <v>0.04987070428309722</v>
-      </c>
-      <c r="T14">
-        <v>0.04459152949554498</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.1008186666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.302456</v>
-      </c>
-      <c r="I15">
-        <v>0.5824672085844085</v>
-      </c>
-      <c r="J15">
-        <v>0.6645982386133915</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>56.16712533333333</v>
-      </c>
-      <c r="N15">
-        <v>168.501376</v>
-      </c>
-      <c r="O15">
-        <v>0.4772197020892965</v>
-      </c>
-      <c r="P15">
-        <v>0.560955985835208</v>
-      </c>
-      <c r="Q15">
-        <v>5.662694686606222</v>
-      </c>
-      <c r="R15">
-        <v>50.964252179456</v>
-      </c>
-      <c r="S15">
-        <v>0.2779648277574356</v>
-      </c>
-      <c r="T15">
-        <v>0.3728103601257178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.1008186666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.302456</v>
-      </c>
-      <c r="I16">
-        <v>0.5824672085844085</v>
-      </c>
-      <c r="J16">
-        <v>0.6645982386133915</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.9207109999999999</v>
-      </c>
-      <c r="N16">
-        <v>2.762133</v>
-      </c>
-      <c r="O16">
-        <v>0.007822750880034444</v>
-      </c>
-      <c r="P16">
-        <v>0.009195385087080598</v>
-      </c>
-      <c r="Q16">
-        <v>0.09282485540533333</v>
-      </c>
-      <c r="R16">
-        <v>0.835423698648</v>
-      </c>
-      <c r="S16">
-        <v>0.004556495868544888</v>
-      </c>
-      <c r="T16">
-        <v>0.006111236732245613</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.1008186666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.302456</v>
-      </c>
-      <c r="I17">
-        <v>0.5824672085844085</v>
-      </c>
-      <c r="J17">
-        <v>0.6645982386133915</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>42.6300515</v>
-      </c>
-      <c r="N17">
-        <v>85.260103</v>
-      </c>
-      <c r="O17">
-        <v>0.362202985396654</v>
-      </c>
-      <c r="P17">
-        <v>0.2838384247424566</v>
-      </c>
-      <c r="Q17">
-        <v>4.297904952161334</v>
-      </c>
-      <c r="R17">
-        <v>25.787429712968</v>
-      </c>
-      <c r="S17">
-        <v>0.2109713618449283</v>
-      </c>
-      <c r="T17">
-        <v>0.1886385171346363</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.1008186666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.302456</v>
-      </c>
-      <c r="I18">
-        <v>0.5824672085844085</v>
-      </c>
-      <c r="J18">
-        <v>0.6645982386133915</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>6.460321333333333</v>
-      </c>
-      <c r="N18">
-        <v>19.380964</v>
-      </c>
-      <c r="O18">
-        <v>0.05488962811961477</v>
-      </c>
-      <c r="P18">
-        <v>0.06452094353850663</v>
-      </c>
-      <c r="Q18">
-        <v>0.6513209830648888</v>
-      </c>
-      <c r="R18">
-        <v>5.861888847584</v>
-      </c>
-      <c r="S18">
-        <v>0.03197140847106827</v>
-      </c>
-      <c r="T18">
-        <v>0.04288050542936559</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.1008186666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.302456</v>
-      </c>
-      <c r="I19">
-        <v>0.5824672085844085</v>
-      </c>
-      <c r="J19">
-        <v>0.6645982386133915</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.441214666666667</v>
-      </c>
-      <c r="N19">
-        <v>4.323644</v>
-      </c>
-      <c r="O19">
-        <v>0.01224517063658978</v>
-      </c>
-      <c r="P19">
-        <v>0.01439379333270538</v>
-      </c>
-      <c r="Q19">
-        <v>0.1453013410737778</v>
-      </c>
-      <c r="R19">
-        <v>1.307712069664</v>
-      </c>
-      <c r="S19">
-        <v>0.007132410359334215</v>
-      </c>
-      <c r="T19">
-        <v>0.009566089695881174</v>
+        <v>0.006986963178627527</v>
       </c>
     </row>
   </sheetData>
